--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CE/10/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CE/10/seed4/result_data_KNN.xlsx
@@ -559,7 +559,7 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>16.654</v>
+        <v>16.705</v>
       </c>
     </row>
     <row r="8">
@@ -587,7 +587,7 @@
         <v>4.86</v>
       </c>
       <c r="C9" t="n">
-        <v>-10.67</v>
+        <v>-10.85</v>
       </c>
       <c r="D9" t="n">
         <v>-7.01</v>
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>17.774</v>
+        <v>17.739</v>
       </c>
     </row>
     <row r="13">
@@ -740,7 +740,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.118</v>
+        <v>-11.62</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -774,7 +774,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.01</v>
+        <v>-12.371</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -882,7 +882,7 @@
         <v>-9.31</v>
       </c>
       <c r="E26" t="n">
-        <v>16.594</v>
+        <v>16.525</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.692</v>
+        <v>-13.224</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.458</v>
+        <v>16.366</v>
       </c>
     </row>
     <row r="28">
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>16.94</v>
+        <v>16.941</v>
       </c>
     </row>
     <row r="30">
@@ -1069,7 +1069,7 @@
         <v>-7.88</v>
       </c>
       <c r="E37" t="n">
-        <v>16.784</v>
+        <v>16.852</v>
       </c>
     </row>
     <row r="38">
@@ -1086,7 +1086,7 @@
         <v>-9.09</v>
       </c>
       <c r="E38" t="n">
-        <v>16.75</v>
+        <v>16.745</v>
       </c>
     </row>
     <row r="39">
@@ -1307,7 +1307,7 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>17.214</v>
+        <v>16.743</v>
       </c>
     </row>
     <row r="52">
@@ -1375,7 +1375,7 @@
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.676</v>
+        <v>16.494</v>
       </c>
     </row>
     <row r="56">
@@ -1607,13 +1607,13 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-10.834</v>
+        <v>-10.672</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
       </c>
       <c r="E69" t="n">
-        <v>17.796</v>
+        <v>17.396</v>
       </c>
     </row>
     <row r="70">
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.774</v>
+        <v>17.654</v>
       </c>
     </row>
     <row r="71">
@@ -1726,7 +1726,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-12.75</v>
+        <v>-13.032</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1828,7 +1828,7 @@
         <v>5.26</v>
       </c>
       <c r="C82" t="n">
-        <v>-12.198</v>
+        <v>-11.991</v>
       </c>
       <c r="D82" t="n">
         <v>-7.37</v>
@@ -1851,7 +1851,7 @@
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>16.678</v>
+        <v>16.886</v>
       </c>
     </row>
     <row r="84">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.864</v>
+        <v>16.784</v>
       </c>
     </row>
   </sheetData>
